--- a/docs/assets/disciplinas/LOM3091.xlsx
+++ b/docs/assets/disciplinas/LOM3091.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar e discutir as formas de caracterização de materiais utilizando microscopia eletrônica de varredura. Permitir a compreensão das interações elétron-matéria e as formas de utilização destas interações para caracterização de materiais. Conhecer o microscópio eletrônico de varredura e suas aplicações. Conhecer as formas de caracterização qualitativa e quantitativa de amostras utilizando radiação X. Conhecer e aplicar técnicas de preparação de amostras para microscopia. Aprender e aplicar técnicas e procedimentos de operação de um MEV. Fornecer subsídios para o estudo das demais disciplinas do ciclo profissional.</t>
+    <t>6495737 - Durval Rodrigues Junior</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>6495737 - Durval Rodrigues Junior</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Introdução. Microestrutura e macroestrutura. Comparação entre microscopia ótica e microscopia eletrônica. Ótica eletrônica. Interações elétrons-matéria. Princípio de formação de imagens. O Microscópio Eletrônico de Varredura. MEV com pressão variável. Análise Quantitativa utilizando radiação X. Preparação de Amostras para MEV. Laboratório de Microscopia Eletrônica de Varredura  Técnicas e procedimentos de operação de um MEV.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,17 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Introdução. Microestrutura e macroestrutura. Comparação entre microscopia ótica e microscopia eletrônica.
-2. Ótica eletrônica.
-3. Interações elétrons-matéria.
-4. Princípio de formação de imagens.
-5. O Microscópio Eletrônico de Varredura.
-6. MEV com pressão variável. 
-7. Análise Quantitativa utilizando radiação X.
-8. Preparação de Amostras para MEV.
-9. Laboratório de Microscopia Eletrônica de Varredura  Técnicas e procedimentos de operação de um MEV.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -114,44 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aplicação de duas provas escritas (P1 e P2) e apresentação na forma de seminário de um projeto de curso usando MEV.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A Nota final (NF) será calculada da seguinte maneira: NF = 0,70 x (P1 + P2)/2 + 0,30 x Seminário.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) será calculada pela fórmula: MR = (NF + PR)/2.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1. Scanning Electron Microscopy and X-Ray Microanalysis microanalysis (A text for biologists, materials scientists, and geologists); J.I. Goldstein, D.E. Newbury, P. Echlin, D.C. Joy, A.D. Romig, Jr., L.E. Lyman, C. Fiori, E. Lifshin; Plenum Press, New York; 2nd. Edition; 1992.
-2. Principles of Analytical Electron Microscopy; D.C. Joy, A.D. Romig, Jr., J.I. Goldstein; Plenum Press, New York; 1989.
-3. Microanalysis of Solids; B. G. Yacobi, D. B. Holt, L. L. Kazmerski; Plenum Press, new York, 1994.
-4. Fundamentos de Microscopia; Luiz Henrique Monteiro Leal; Ed. UERJ, 2000.
-5. Microscopia dos Materiais; Walter A. Mannheimer; Ed. SBMM e-papers; 2002.
-6. The Operation of Transmission and Scanning Electron Microscopes; Dawn Chescoe, Peter J. Goodshew; Oxford Science Publications  Royal Microscopical Society; 1990.
-7. Specimen Preparation for Transmission Electron Microscopy of Materials; Peter J. Goodhew; Oxford Science Publications  Royal Microscopical Society; 1984.
-8. Advanced Scanning Electron Microscopy and X-Ray Microanalysis; D.E. Newbury, D.C. Joy, P. Echlin, C.E. Fiori, J.I. Goldstein; Plenum Press, New York; 1987.
-9. Introduction to X-Ray Spectrometric Analysis; Eugene P. Bertin; Plenum Press, New York; 1978.
-10. Quantitative X-Ray Spectrometry; Ron Jenkins, R.W. Gould, Dale Gedcke; Marcel Dekker, Inc., New York; 1981.
-11. Elements of X-Ray Diffraction; B.D. Cullity; Addison-Welley Publishing Company, Inc.; 1978.
-12. Principles and practice of electron microscope operation; A. W. Agar, R. H. Alderson, D. Chescoe; Vol. 2, 6th printing. In Glauert series. Amsterdan: North-Holland; 1987.
-13. Optics; E. Hechts; 2nd edition, Addison-Wesley; 1987.
-14. Electron microscopy of thin crystals; A. Hirsch et al.; Krieger Publishing Company; 1977.
-15. Scanning electron microscopy, x-ray microanalysis, and analytical electron microscopy (A laboratory workbook); C. E. Lyman et al.; Plenum Press; 1990.
-16. Transmission electron microscopy (A textbook for Materials Science); D. B. Williams, C. B. Carter; Plenum Press; 1996.
-17. Atomic Force Microscopy/Scanning Tunneling Microscopy; Ed. Samuel H. Cohen, Mona T. Bray, Marcia L. Lightbody; Plenum Press, 1997.
-18. Electron Backscatter Diffraction in Materials Science; Ed. Adam J. Schwartz, Mukul Kumar, Brent L. Adams; Kluwer Academic/Plenum Publishers, 2000.
-19. Catálogos de Equipamentos e Empresas (distribuídos em formato pdf durante o curso). 
-20. Textos técnicos, dissertações e teses (distribuídos em formato pdf durante o curso).</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -518,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,114 +607,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3091.xlsx
+++ b/docs/assets/disciplinas/LOM3091.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar e discutir as formas de caracterização de materiais utilizando microscopia eletrônica de varredura. Permitir a compreensão das interações elétron-matéria e as formas de utilização destas interações para caracterização de materiais. Conhecer o microscópio eletrônico de varredura e suas aplicações. Conhecer as formas de caracterização qualitativa e quantitativa de amostras utilizando radiação X. Conhecer e aplicar técnicas de preparação de amostras para microscopia. Aprender e aplicar técnicas e procedimentos de operação de um MEV. Fornecer subsídios para o estudo das demais disciplinas do ciclo profissional.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>6495737 - Durval Rodrigues Junior</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Introdução. Microestrutura e macroestrutura. Comparação entre microscopia ótica e microscopia eletrônica. Ótica eletrônica. Interações elétrons-matéria. Princípio de formação de imagens. O Microscópio Eletrônico de Varredura. MEV com pressão variável. Análise Quantitativa utilizando radiação X. Preparação de Amostras para MEV. Laboratório de Microscopia Eletrônica de Varredura  Técnicas e procedimentos de operação de um MEV.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,17 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Introdução. Microestrutura e macroestrutura. Comparação entre microscopia ótica e microscopia eletrônica.
+2. Ótica eletrônica.
+3. Interações elétrons-matéria.
+4. Princípio de formação de imagens.
+5. O Microscópio Eletrônico de Varredura.
+6. MEV com pressão variável. 
+7. Análise Quantitativa utilizando radiação X.
+8. Preparação de Amostras para MEV.
+9. Laboratório de Microscopia Eletrônica de Varredura  Técnicas e procedimentos de operação de um MEV.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +114,44 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aplicação de duas provas escritas (P1 e P2) e apresentação na forma de seminário de um projeto de curso usando MEV.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aplicação de duas provas escritas (P1 e P2) e apresentação na forma de seminário de um projeto de curso usando MEV.</t>
+    <t>A Nota final (NF) será calculada da seguinte maneira: NF = 0,70 x (P1 + P2)/2 + 0,30 x Seminário.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A Nota final (NF) será calculada da seguinte maneira: NF = 0,70 x (P1 + P2)/2 + 0,30 x Seminário.</t>
+    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) será calculada pela fórmula: MR = (NF + PR)/2.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) será calculada pela fórmula: MR = (NF + PR)/2.</t>
+    <t>1. Scanning Electron Microscopy and X-Ray Microanalysis microanalysis (A text for biologists, materials scientists, and geologists); J.I. Goldstein, D.E. Newbury, P. Echlin, D.C. Joy, A.D. Romig, Jr., L.E. Lyman, C. Fiori, E. Lifshin; Plenum Press, New York; 2nd. Edition; 1992.
+2. Principles of Analytical Electron Microscopy; D.C. Joy, A.D. Romig, Jr., J.I. Goldstein; Plenum Press, New York; 1989.
+3. Microanalysis of Solids; B. G. Yacobi, D. B. Holt, L. L. Kazmerski; Plenum Press, new York, 1994.
+4. Fundamentos de Microscopia; Luiz Henrique Monteiro Leal; Ed. UERJ, 2000.
+5. Microscopia dos Materiais; Walter A. Mannheimer; Ed. SBMM e-papers; 2002.
+6. The Operation of Transmission and Scanning Electron Microscopes; Dawn Chescoe, Peter J. Goodshew; Oxford Science Publications  Royal Microscopical Society; 1990.
+7. Specimen Preparation for Transmission Electron Microscopy of Materials; Peter J. Goodhew; Oxford Science Publications  Royal Microscopical Society; 1984.
+8. Advanced Scanning Electron Microscopy and X-Ray Microanalysis; D.E. Newbury, D.C. Joy, P. Echlin, C.E. Fiori, J.I. Goldstein; Plenum Press, New York; 1987.
+9. Introduction to X-Ray Spectrometric Analysis; Eugene P. Bertin; Plenum Press, New York; 1978.
+10. Quantitative X-Ray Spectrometry; Ron Jenkins, R.W. Gould, Dale Gedcke; Marcel Dekker, Inc., New York; 1981.
+11. Elements of X-Ray Diffraction; B.D. Cullity; Addison-Welley Publishing Company, Inc.; 1978.
+12. Principles and practice of electron microscope operation; A. W. Agar, R. H. Alderson, D. Chescoe; Vol. 2, 6th printing. In Glauert series. Amsterdan: North-Holland; 1987.
+13. Optics; E. Hechts; 2nd edition, Addison-Wesley; 1987.
+14. Electron microscopy of thin crystals; A. Hirsch et al.; Krieger Publishing Company; 1977.
+15. Scanning electron microscopy, x-ray microanalysis, and analytical electron microscopy (A laboratory workbook); C. E. Lyman et al.; Plenum Press; 1990.
+16. Transmission electron microscopy (A textbook for Materials Science); D. B. Williams, C. B. Carter; Plenum Press; 1996.
+17. Atomic Force Microscopy/Scanning Tunneling Microscopy; Ed. Samuel H. Cohen, Mona T. Bray, Marcia L. Lightbody; Plenum Press, 1997.
+18. Electron Backscatter Diffraction in Materials Science; Ed. Adam J. Schwartz, Mukul Kumar, Brent L. Adams; Kluwer Academic/Plenum Publishers, 2000.
+19. Catálogos de Equipamentos e Empresas (distribuídos em formato pdf durante o curso). 
+20. Textos técnicos, dissertações e teses (distribuídos em formato pdf durante o curso).</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -482,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -607,106 +643,114 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
